--- a/Carta Gantt.xlsx
+++ b/Carta Gantt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adolfo\Documents\INFO264\INFO264_Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adolfo\Documents\INFO264_Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AF27F0F0-F871-4A22-B622-057AB1ED1EEF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{134139B8-DFA2-4068-A720-27EFF4543269}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22560" windowHeight="11205" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="84">
   <si>
     <t>GANTT CHART TEMPLATE</t>
   </si>
@@ -240,21 +240,6 @@
     <t>DIAS DE TRABAJO</t>
   </si>
   <si>
-    <t>Primer Mes</t>
-  </si>
-  <si>
-    <t>Segundo Mes</t>
-  </si>
-  <si>
-    <t>Tercer Mes</t>
-  </si>
-  <si>
-    <t>Instalar Herramientas</t>
-  </si>
-  <si>
-    <t>Presentacion Final</t>
-  </si>
-  <si>
     <t>INICIO</t>
   </si>
   <si>
@@ -267,37 +252,28 @@
     <t>TAREAS</t>
   </si>
   <si>
-    <t>Crear BD de prueba y Practicar lenguaje a utilizar</t>
+    <t>Extension</t>
   </si>
   <si>
-    <t>Mostrar avance del proyecto</t>
+    <t>Especificacion de Requisitos / Análisis</t>
   </si>
   <si>
-    <t>Funcion basica realizada y Reunión con cliente</t>
+    <t>Diseño</t>
   </si>
   <si>
-    <t>Funcion post twitter terminada y Reunion con cliente</t>
+    <t>Implementación</t>
   </si>
   <si>
-    <t>Realizar mejoras + refactoring</t>
+    <t>Verificacion/Validacion, Reunion con cliente</t>
   </si>
   <si>
-    <t>Incorporar facebook y Reunion con cliente</t>
+    <t>Primer Mes (Prototipo1) - Post Twitter</t>
   </si>
   <si>
-    <t>Crear BD para servicio de mensajeria</t>
+    <t>Segundo Mes (Prototipo2) - Post Facebook , Instagram</t>
   </si>
   <si>
-    <t>Implementar servicio de mensajeria</t>
-  </si>
-  <si>
-    <t>Funcion de filtrado y selección de contactos</t>
-  </si>
-  <si>
-    <t>Verificacion/Validacion Gral</t>
-  </si>
-  <si>
-    <t>Extension</t>
+    <t>Tercer Mes (Prototipo3) - Servicio Mensajeria</t>
   </si>
 </sst>
 </file>
@@ -309,7 +285,7 @@
     <numFmt numFmtId="165" formatCode="m&quot;/&quot;d"/>
     <numFmt numFmtId="166" formatCode="m/d"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -375,6 +351,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF434343"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="22">
@@ -628,7 +610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -775,34 +757,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -821,10 +775,41 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="13" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1460,40 +1445,40 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>Instalar Herramientas</c:v>
+                  <c:v>Especificacion de Requisitos / Análisis</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Crear BD de prueba y Practicar lenguaje a utilizar</c:v>
+                  <c:v>Diseño</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Funcion basica realizada y Reunión con cliente</c:v>
+                  <c:v>Implementación</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Mostrar avance del proyecto</c:v>
+                  <c:v>Verificacion/Validacion, Reunion con cliente</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Funcion post twitter terminada y Reunion con cliente</c:v>
+                  <c:v>Especificacion de Requisitos / Análisis</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Realizar mejoras + refactoring</c:v>
+                  <c:v>Diseño</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Incorporar facebook y Reunion con cliente</c:v>
+                  <c:v>Implementación</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Crear BD para servicio de mensajeria</c:v>
+                  <c:v>Verificacion/Validacion, Reunion con cliente</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Implementar servicio de mensajeria</c:v>
+                  <c:v>Especificacion de Requisitos / Análisis</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Funcion de filtrado y selección de contactos</c:v>
+                  <c:v>Diseño</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Verificacion/Validacion Gral</c:v>
+                  <c:v>Implementación</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Presentacion Final</c:v>
+                  <c:v>Verificacion/Validacion, Reunion con cliente</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Extension</c:v>
@@ -1579,40 +1564,40 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>Instalar Herramientas</c:v>
+                  <c:v>Especificacion de Requisitos / Análisis</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Crear BD de prueba y Practicar lenguaje a utilizar</c:v>
+                  <c:v>Diseño</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Funcion basica realizada y Reunión con cliente</c:v>
+                  <c:v>Implementación</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Mostrar avance del proyecto</c:v>
+                  <c:v>Verificacion/Validacion, Reunion con cliente</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Funcion post twitter terminada y Reunion con cliente</c:v>
+                  <c:v>Especificacion de Requisitos / Análisis</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Realizar mejoras + refactoring</c:v>
+                  <c:v>Diseño</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Incorporar facebook y Reunion con cliente</c:v>
+                  <c:v>Implementación</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Crear BD para servicio de mensajeria</c:v>
+                  <c:v>Verificacion/Validacion, Reunion con cliente</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Implementar servicio de mensajeria</c:v>
+                  <c:v>Especificacion de Requisitos / Análisis</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Funcion de filtrado y selección de contactos</c:v>
+                  <c:v>Diseño</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Verificacion/Validacion Gral</c:v>
+                  <c:v>Implementación</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Presentacion Final</c:v>
+                  <c:v>Verificacion/Validacion, Reunion con cliente</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Extension</c:v>
@@ -2397,80 +2382,80 @@
       <c r="AJ5" s="2"/>
     </row>
     <row r="6" spans="1:39" ht="15" customHeight="1">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72" t="s">
+      <c r="A6" s="81"/>
+      <c r="B6" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="72" t="s">
+      <c r="E6" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="72" t="s">
+      <c r="F6" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="72" t="s">
+      <c r="G6" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="72" t="s">
+      <c r="H6" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="72" t="s">
+      <c r="I6" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="72" t="s">
+      <c r="J6" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74" t="s">
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="74"/>
-      <c r="T6" s="74"/>
-      <c r="U6" s="73" t="s">
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="83"/>
+      <c r="T6" s="83"/>
+      <c r="U6" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="73"/>
-      <c r="W6" s="73"/>
-      <c r="X6" s="73"/>
-      <c r="Y6" s="73"/>
-      <c r="Z6" s="74" t="s">
+      <c r="V6" s="82"/>
+      <c r="W6" s="82"/>
+      <c r="X6" s="82"/>
+      <c r="Y6" s="82"/>
+      <c r="Z6" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="AA6" s="74"/>
-      <c r="AB6" s="74"/>
-      <c r="AC6" s="74"/>
-      <c r="AD6" s="74"/>
-      <c r="AE6" s="73" t="s">
+      <c r="AA6" s="83"/>
+      <c r="AB6" s="83"/>
+      <c r="AC6" s="83"/>
+      <c r="AD6" s="83"/>
+      <c r="AE6" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="AF6" s="73"/>
-      <c r="AG6" s="73"/>
-      <c r="AH6" s="73"/>
-      <c r="AI6" s="73"/>
+      <c r="AF6" s="82"/>
+      <c r="AG6" s="82"/>
+      <c r="AH6" s="82"/>
+      <c r="AI6" s="82"/>
       <c r="AJ6" s="47"/>
     </row>
     <row r="7" spans="1:39" ht="15">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
       <c r="K7" s="47"/>
       <c r="L7" s="47"/>
       <c r="M7" s="47"/>
@@ -3355,8 +3340,8 @@
   </sheetPr>
   <dimension ref="A1:AI50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:G23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3555,23 +3540,23 @@
       <c r="AH5" s="71"/>
     </row>
     <row r="6" spans="1:35" ht="39.75" customHeight="1">
-      <c r="A6" s="94"/>
-      <c r="B6" s="94" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="94" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="94" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="94" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="94" t="s">
+      <c r="A6" s="84"/>
+      <c r="B6" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="94" t="s">
+      <c r="G6" s="84" t="s">
         <v>70</v>
       </c>
       <c r="I6" s="1"/>
@@ -3603,13 +3588,13 @@
       <c r="AI6" s="1"/>
     </row>
     <row r="7" spans="1:35" ht="15">
-      <c r="A7" s="95"/>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
       <c r="I7" s="46"/>
       <c r="J7" s="46"/>
       <c r="K7" s="46"/>
@@ -3638,15 +3623,15 @@
       <c r="AH7" s="46"/>
     </row>
     <row r="8" spans="1:35">
-      <c r="A8" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
+      <c r="A8" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
       <c r="I8" s="51"/>
       <c r="J8" s="52"/>
       <c r="K8" s="53"/>
@@ -3675,26 +3660,26 @@
       <c r="AH8" s="51"/>
     </row>
     <row r="9" spans="1:35" ht="15">
-      <c r="A9" s="90"/>
-      <c r="B9" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="86">
+      <c r="A9" s="76"/>
+      <c r="B9" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="72">
         <v>43374</v>
       </c>
-      <c r="D9" s="88">
+      <c r="D9" s="74">
         <v>43380</v>
       </c>
-      <c r="E9" s="89">
+      <c r="E9" s="75">
         <f>INT(C9)-INT($C$9)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="89">
+      <c r="F9" s="75">
         <f t="shared" ref="F9:F12" si="0">IF(ISBLANK(C9),"", (D9-C9))</f>
         <v>6</v>
       </c>
       <c r="G9" s="58">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -3724,26 +3709,26 @@
       <c r="AH9" s="2"/>
     </row>
     <row r="10" spans="1:35" ht="15">
-      <c r="A10" s="90"/>
-      <c r="B10" s="87" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="86">
+      <c r="A10" s="76"/>
+      <c r="B10" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="72">
         <v>43381</v>
       </c>
-      <c r="D10" s="88">
+      <c r="D10" s="74">
         <v>43387</v>
       </c>
-      <c r="E10" s="89">
+      <c r="E10" s="75">
         <f>INT(C10)-INT($C$9)</f>
         <v>7</v>
       </c>
-      <c r="F10" s="89">
+      <c r="F10" s="75">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G10" s="61">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -3773,21 +3758,21 @@
       <c r="AH10" s="2"/>
     </row>
     <row r="11" spans="1:35" ht="15">
-      <c r="A11" s="90"/>
-      <c r="B11" s="87" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="86">
+      <c r="A11" s="76"/>
+      <c r="B11" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="72">
         <v>43388</v>
       </c>
-      <c r="D11" s="88">
+      <c r="D11" s="74">
         <v>43394</v>
       </c>
-      <c r="E11" s="89">
+      <c r="E11" s="75">
         <f t="shared" ref="E11:E12" si="1">INT(C11)-INT($C$9)</f>
         <v>14</v>
       </c>
-      <c r="F11" s="89">
+      <c r="F11" s="75">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -3822,55 +3807,55 @@
       <c r="AH11" s="2"/>
     </row>
     <row r="12" spans="1:35" ht="15">
-      <c r="A12" s="90"/>
-      <c r="B12" s="87" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="86">
+      <c r="A12" s="76"/>
+      <c r="B12" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="72">
         <v>43395</v>
       </c>
-      <c r="D12" s="88">
+      <c r="D12" s="74">
         <v>43401</v>
       </c>
-      <c r="E12" s="89">
+      <c r="E12" s="75">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="F12" s="89">
+      <c r="F12" s="75">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G12" s="62">
+      <c r="G12" s="80">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:35">
-      <c r="A13" s="91" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
+      <c r="A13" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
     </row>
     <row r="14" spans="1:35" ht="15">
-      <c r="A14" s="90"/>
-      <c r="B14" s="87" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="86">
+      <c r="A14" s="76"/>
+      <c r="B14" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="72">
         <v>43402</v>
       </c>
-      <c r="D14" s="88">
+      <c r="D14" s="74">
         <v>43408</v>
       </c>
-      <c r="E14" s="89">
+      <c r="E14" s="75">
         <f>INT(C14)-INT($C$9)</f>
         <v>28</v>
       </c>
-      <c r="F14" s="89">
+      <c r="F14" s="75">
         <f>IF(ISBLANK(C14),"", (D14-C14))</f>
         <v>6</v>
       </c>
@@ -3879,21 +3864,21 @@
       </c>
     </row>
     <row r="15" spans="1:35" ht="15">
-      <c r="A15" s="90"/>
-      <c r="B15" s="87" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="88">
+      <c r="A15" s="76"/>
+      <c r="B15" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="74">
         <v>43409</v>
       </c>
-      <c r="D15" s="88">
+      <c r="D15" s="74">
         <v>43415</v>
       </c>
-      <c r="E15" s="89">
+      <c r="E15" s="75">
         <f t="shared" ref="E15:E17" si="2">INT(C15)-INT($C$9)</f>
         <v>35</v>
       </c>
-      <c r="F15" s="89">
+      <c r="F15" s="75">
         <f t="shared" ref="F15:F17" si="3">IF(ISBLANK(C15),"", (D15-C15))</f>
         <v>6</v>
       </c>
@@ -3902,21 +3887,21 @@
       </c>
     </row>
     <row r="16" spans="1:35" ht="15">
-      <c r="A16" s="90"/>
-      <c r="B16" s="87" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="88">
+      <c r="A16" s="76"/>
+      <c r="B16" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="74">
         <v>43416</v>
       </c>
-      <c r="D16" s="88">
+      <c r="D16" s="74">
         <v>43422</v>
       </c>
-      <c r="E16" s="89">
+      <c r="E16" s="75">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="F16" s="89">
+      <c r="F16" s="75">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
@@ -3925,21 +3910,21 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15">
-      <c r="A17" s="90"/>
-      <c r="B17" s="87" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="88">
+      <c r="A17" s="76"/>
+      <c r="B17" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="74">
         <v>43423</v>
       </c>
-      <c r="D17" s="88">
+      <c r="D17" s="74">
         <v>43429</v>
       </c>
-      <c r="E17" s="89">
+      <c r="E17" s="75">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="F17" s="89">
+      <c r="F17" s="75">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
@@ -3948,32 +3933,32 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="91" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="92"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
+      <c r="A18" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
     </row>
     <row r="19" spans="1:9" ht="15">
-      <c r="A19" s="90"/>
-      <c r="B19" s="87" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="88">
+      <c r="A19" s="76"/>
+      <c r="B19" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="74">
         <v>43430</v>
       </c>
-      <c r="D19" s="88">
+      <c r="D19" s="74">
         <v>43436</v>
       </c>
-      <c r="E19" s="89">
+      <c r="E19" s="75">
         <f>INT(C19)-INT($C$9)</f>
         <v>56</v>
       </c>
-      <c r="F19" s="89">
+      <c r="F19" s="75">
         <f>IF(ISBLANK(C19),"", (D19-C19))</f>
         <v>6</v>
       </c>
@@ -3982,21 +3967,21 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="15">
-      <c r="A20" s="90"/>
-      <c r="B20" s="87" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="88">
+      <c r="A20" s="76"/>
+      <c r="B20" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="74">
         <v>43437</v>
       </c>
-      <c r="D20" s="88">
+      <c r="D20" s="74">
         <v>43443</v>
       </c>
-      <c r="E20" s="89">
+      <c r="E20" s="75">
         <f t="shared" ref="E20:E23" si="4">INT(C20)-INT($C$9)</f>
         <v>63</v>
       </c>
-      <c r="F20" s="89">
+      <c r="F20" s="75">
         <f t="shared" ref="F20:F23" si="5">IF(ISBLANK(C20),"", (D20-C20))</f>
         <v>6</v>
       </c>
@@ -4005,21 +3990,21 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="15">
-      <c r="A21" s="90"/>
-      <c r="B21" s="87" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="88">
+      <c r="A21" s="76"/>
+      <c r="B21" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="74">
         <v>43444</v>
       </c>
-      <c r="D21" s="88">
+      <c r="D21" s="74">
         <v>43450</v>
       </c>
-      <c r="E21" s="89">
+      <c r="E21" s="75">
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="F21" s="89">
+      <c r="F21" s="75">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
@@ -4028,21 +4013,21 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="15">
-      <c r="A22" s="90"/>
-      <c r="B22" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="88">
+      <c r="A22" s="76"/>
+      <c r="B22" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="74">
         <v>43451</v>
       </c>
-      <c r="D22" s="88">
+      <c r="D22" s="74">
         <v>43457</v>
       </c>
-      <c r="E22" s="89">
+      <c r="E22" s="75">
         <f t="shared" si="4"/>
         <v>77</v>
       </c>
-      <c r="F22" s="89">
+      <c r="F22" s="75">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
@@ -4051,21 +4036,21 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="15">
-      <c r="A23" s="90"/>
-      <c r="B23" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="88">
+      <c r="A23" s="76"/>
+      <c r="B23" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="74">
         <v>43458</v>
       </c>
-      <c r="D23" s="88">
+      <c r="D23" s="74">
         <v>43464</v>
       </c>
-      <c r="E23" s="89">
+      <c r="E23" s="75">
         <f t="shared" si="4"/>
         <v>84</v>
       </c>
-      <c r="F23" s="89">
+      <c r="F23" s="75">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
@@ -4188,7 +4173,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4351,15 +4337,15 @@
       <c r="BO2" s="2"/>
     </row>
     <row r="3" spans="1:67" ht="15.75" customHeight="1">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -4560,118 +4546,118 @@
       <c r="BO5" s="2"/>
     </row>
     <row r="6" spans="1:67" ht="15">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72" t="s">
+      <c r="A6" s="81"/>
+      <c r="B6" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="72" t="s">
+      <c r="E6" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="72" t="s">
+      <c r="F6" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="80" t="s">
+      <c r="G6" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="82" t="s">
+      <c r="H6" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="76" t="s">
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="82" t="s">
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="77"/>
-      <c r="T6" s="77"/>
-      <c r="U6" s="77"/>
-      <c r="V6" s="77"/>
-      <c r="W6" s="76" t="s">
+      <c r="S6" s="87"/>
+      <c r="T6" s="87"/>
+      <c r="U6" s="87"/>
+      <c r="V6" s="87"/>
+      <c r="W6" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="X6" s="77"/>
-      <c r="Y6" s="77"/>
-      <c r="Z6" s="77"/>
-      <c r="AA6" s="77"/>
-      <c r="AB6" s="82" t="s">
+      <c r="X6" s="87"/>
+      <c r="Y6" s="87"/>
+      <c r="Z6" s="87"/>
+      <c r="AA6" s="87"/>
+      <c r="AB6" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="AC6" s="77"/>
-      <c r="AD6" s="77"/>
-      <c r="AE6" s="77"/>
-      <c r="AF6" s="77"/>
-      <c r="AG6" s="76" t="s">
+      <c r="AC6" s="87"/>
+      <c r="AD6" s="87"/>
+      <c r="AE6" s="87"/>
+      <c r="AF6" s="87"/>
+      <c r="AG6" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="AH6" s="77"/>
-      <c r="AI6" s="77"/>
-      <c r="AJ6" s="77"/>
-      <c r="AK6" s="77"/>
-      <c r="AL6" s="82" t="s">
+      <c r="AH6" s="87"/>
+      <c r="AI6" s="87"/>
+      <c r="AJ6" s="87"/>
+      <c r="AK6" s="87"/>
+      <c r="AL6" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="AM6" s="77"/>
-      <c r="AN6" s="77"/>
-      <c r="AO6" s="77"/>
-      <c r="AP6" s="77"/>
-      <c r="AQ6" s="76" t="s">
+      <c r="AM6" s="87"/>
+      <c r="AN6" s="87"/>
+      <c r="AO6" s="87"/>
+      <c r="AP6" s="87"/>
+      <c r="AQ6" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="AR6" s="77"/>
-      <c r="AS6" s="77"/>
-      <c r="AT6" s="77"/>
-      <c r="AU6" s="77"/>
-      <c r="AV6" s="82" t="s">
+      <c r="AR6" s="87"/>
+      <c r="AS6" s="87"/>
+      <c r="AT6" s="87"/>
+      <c r="AU6" s="87"/>
+      <c r="AV6" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="AW6" s="77"/>
-      <c r="AX6" s="77"/>
-      <c r="AY6" s="77"/>
-      <c r="AZ6" s="77"/>
-      <c r="BA6" s="76" t="s">
+      <c r="AW6" s="87"/>
+      <c r="AX6" s="87"/>
+      <c r="AY6" s="87"/>
+      <c r="AZ6" s="87"/>
+      <c r="BA6" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="BB6" s="77"/>
-      <c r="BC6" s="77"/>
-      <c r="BD6" s="77"/>
-      <c r="BE6" s="77"/>
-      <c r="BF6" s="82" t="s">
+      <c r="BB6" s="87"/>
+      <c r="BC6" s="87"/>
+      <c r="BD6" s="87"/>
+      <c r="BE6" s="87"/>
+      <c r="BF6" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="BG6" s="77"/>
-      <c r="BH6" s="77"/>
-      <c r="BI6" s="77"/>
-      <c r="BJ6" s="77"/>
-      <c r="BK6" s="76" t="s">
+      <c r="BG6" s="87"/>
+      <c r="BH6" s="87"/>
+      <c r="BI6" s="87"/>
+      <c r="BJ6" s="87"/>
+      <c r="BK6" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="BL6" s="77"/>
-      <c r="BM6" s="77"/>
-      <c r="BN6" s="77"/>
-      <c r="BO6" s="77"/>
+      <c r="BL6" s="87"/>
+      <c r="BM6" s="87"/>
+      <c r="BN6" s="87"/>
+      <c r="BO6" s="87"/>
     </row>
     <row r="7" spans="1:67" ht="15">
-      <c r="A7" s="75"/>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="81"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="92"/>
       <c r="H7" s="10" t="s">
         <v>19</v>
       </c>
@@ -4858,11 +4844,11 @@
         <v>24</v>
       </c>
       <c r="B8" s="15"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
       <c r="H8" s="16"/>
       <c r="I8" s="17"/>
       <c r="J8" s="18"/>
@@ -5409,11 +5395,11 @@
         <v>36</v>
       </c>
       <c r="B15" s="35"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
       <c r="H15" s="36"/>
       <c r="I15" s="37"/>
       <c r="J15" s="38"/>
@@ -5804,11 +5790,11 @@
         <v>41</v>
       </c>
       <c r="B20" s="35"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
       <c r="H20" s="36"/>
       <c r="I20" s="37"/>
       <c r="J20" s="38"/>
@@ -6361,11 +6347,11 @@
         <v>48</v>
       </c>
       <c r="B27" s="35"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
       <c r="H27" s="36"/>
       <c r="I27" s="37"/>
       <c r="J27" s="38"/>
